--- a/percenty_id.xlsx
+++ b/percenty_id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\percenty_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D1E9A2-F534-4C61-A805-EC9493F98435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED13A0CD-1107-4265-A112-EBECE95B6450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A099B65F-58BE-4E64-B774-91566E9725A7}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="1368">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4576,14 +4576,6 @@
   <si>
     <t>완전수동번역</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림 앞1+사이즈표추가 &lt;img src="https://ecimg.cafe24img.com/pg463b45365044062/withop/web/product/big/percenty/h87_size.jpg" style="width:100%"&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림 앞1+사이즈표추가&lt;img src="https://ecimg.cafe24img.com/pg463b45365044062/withop/web/product/big/percenty/I32_size.jpg" style="width:100%"&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>specific:3,4</t>
@@ -5783,6 +5775,26 @@
   </si>
   <si>
     <t>first:2/last:3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림 앞1+사이즈표추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://ecimg.cafe24img.com/pg463b45365044062/withop/web/product/big/percenty/I32_size.jpg" style="width:100%"&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그림 앞1+사이즈표추가 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://ecimg.cafe24img.com/pg463b45365044062/withop/web/product/big/percenty/h87_size.jpg" style="width:100%"&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8068,40 +8080,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D1" t="s">
         <v>1278</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="13" t="s">
         <v>1280</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>1282</v>
-      </c>
       <c r="F1" s="13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>1285</v>
-      </c>
       <c r="H1" s="14" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I1" t="s">
         <v>1286</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>1290</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>1291</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>1292</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -8109,40 +8121,40 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D2" t="s">
         <v>1279</v>
       </c>
-      <c r="D2" t="s">
-        <v>1281</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I2" t="s">
         <v>1287</v>
       </c>
-      <c r="I2" t="s">
-        <v>1289</v>
-      </c>
       <c r="J2" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -8150,40 +8162,40 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D3" t="s">
         <v>1279</v>
       </c>
-      <c r="D3" t="s">
-        <v>1281</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H3" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I3" t="s">
         <v>1287</v>
       </c>
-      <c r="I3" t="s">
-        <v>1289</v>
-      </c>
       <c r="J3" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -8191,40 +8203,40 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D4" t="s">
         <v>1279</v>
       </c>
-      <c r="D4" t="s">
-        <v>1281</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H4" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I4" t="s">
         <v>1287</v>
       </c>
-      <c r="I4" t="s">
-        <v>1289</v>
-      </c>
       <c r="J4" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -8232,40 +8244,40 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D5" t="s">
         <v>1279</v>
       </c>
-      <c r="D5" t="s">
-        <v>1281</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H5" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I5" t="s">
         <v>1287</v>
       </c>
-      <c r="I5" t="s">
-        <v>1289</v>
-      </c>
       <c r="J5" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L5" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="M5" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -8273,40 +8285,40 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D6" t="s">
         <v>1279</v>
       </c>
-      <c r="D6" t="s">
-        <v>1281</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H6" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I6" t="s">
         <v>1287</v>
       </c>
-      <c r="I6" t="s">
-        <v>1289</v>
-      </c>
       <c r="J6" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="M6" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -8314,40 +8326,40 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D7" t="s">
         <v>1279</v>
       </c>
-      <c r="D7" t="s">
-        <v>1281</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H7" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I7" t="s">
         <v>1287</v>
       </c>
-      <c r="I7" t="s">
-        <v>1289</v>
-      </c>
       <c r="J7" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="M7" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -8355,40 +8367,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D8" t="s">
         <v>1279</v>
       </c>
-      <c r="D8" t="s">
-        <v>1281</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H8" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I8" t="s">
         <v>1287</v>
       </c>
-      <c r="I8" t="s">
-        <v>1289</v>
-      </c>
       <c r="J8" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="M8" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -8396,40 +8408,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D9" t="s">
         <v>1279</v>
       </c>
-      <c r="D9" t="s">
-        <v>1281</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H9" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I9" t="s">
         <v>1287</v>
       </c>
-      <c r="I9" t="s">
-        <v>1289</v>
-      </c>
       <c r="J9" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="M9" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -8437,40 +8449,40 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C10" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D10" t="s">
         <v>1279</v>
       </c>
-      <c r="D10" t="s">
-        <v>1281</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H10" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I10" t="s">
         <v>1287</v>
       </c>
-      <c r="I10" t="s">
-        <v>1289</v>
-      </c>
       <c r="J10" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="M10" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -8478,40 +8490,40 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D11" t="s">
         <v>1279</v>
       </c>
-      <c r="D11" t="s">
-        <v>1281</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I11" t="s">
         <v>1287</v>
       </c>
-      <c r="I11" t="s">
-        <v>1289</v>
-      </c>
       <c r="J11" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="M11" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -8519,40 +8531,40 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>1308</v>
       </c>
-      <c r="C12" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>1310</v>
-      </c>
       <c r="H12" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I12" t="s">
         <v>1287</v>
       </c>
-      <c r="I12" t="s">
-        <v>1289</v>
-      </c>
       <c r="J12" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="M12" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -8560,40 +8572,40 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D13" t="s">
         <v>1279</v>
       </c>
-      <c r="D13" t="s">
-        <v>1281</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H13" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I13" t="s">
         <v>1287</v>
       </c>
-      <c r="I13" t="s">
-        <v>1289</v>
-      </c>
       <c r="J13" s="15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L13" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="M13" s="15" t="s">
         <v>1295</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -10235,7 +10247,7 @@
         <v>709</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I42" s="4"/>
       <c r="K42" s="4" t="s">
@@ -10273,7 +10285,7 @@
         <v>1062</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>1063</v>
@@ -10644,10 +10656,10 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10688,7 +10700,7 @@
         <v>1052</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1054</v>
@@ -10990,7 +11002,7 @@
         <v>709</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I10" s="4"/>
       <c r="K10" s="4" t="s">
@@ -11160,7 +11172,7 @@
         <v>709</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I15" s="4"/>
       <c r="K15" s="8" t="s">
@@ -11265,10 +11277,14 @@
       <c r="K18" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>1367</v>
+      </c>
       <c r="N18" s="8" t="s">
-        <v>1275</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -11618,10 +11634,14 @@
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="4"/>
+      <c r="L29" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1364</v>
+      </c>
       <c r="N29" s="4" t="s">
-        <v>1276</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -11971,7 +11991,7 @@
         <v>1071</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>1063</v>
@@ -20614,7 +20634,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -20650,7 +20670,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -20684,7 +20704,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -20718,7 +20738,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -20752,7 +20772,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -20786,7 +20806,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -20820,7 +20840,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -20854,7 +20874,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -20888,7 +20908,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -20922,7 +20942,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -20956,7 +20976,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -20982,7 +21002,7 @@
         <v>709</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -20990,7 +21010,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -21016,7 +21036,7 @@
         <v>709</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -21024,7 +21044,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -21050,7 +21070,7 @@
         <v>709</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -21058,7 +21078,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -21084,7 +21104,7 @@
         <v>709</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -21092,7 +21112,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -21118,7 +21138,7 @@
         <v>709</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -21126,7 +21146,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -21162,7 +21182,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -21196,7 +21216,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -21230,7 +21250,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -21264,7 +21284,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -21298,7 +21318,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -21332,7 +21352,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -21366,7 +21386,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -21400,7 +21420,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -21434,7 +21454,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -21468,7 +21488,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -21502,7 +21522,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -21528,7 +21548,7 @@
         <v>709</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -21538,7 +21558,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -21574,7 +21594,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -21600,7 +21620,7 @@
         <v>709</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -21610,7 +21630,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -21644,7 +21664,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -21678,7 +21698,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -21712,7 +21732,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -21748,7 +21768,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -21782,7 +21802,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -21816,7 +21836,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -21850,7 +21870,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -21876,7 +21896,7 @@
         <v>709</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -21884,7 +21904,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -21920,7 +21940,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -21988,7 +22008,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -22022,7 +22042,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -22056,7 +22076,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -22090,7 +22110,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -22124,7 +22144,7 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -22158,7 +22178,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -22192,7 +22212,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -22226,7 +22246,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -22260,7 +22280,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -22294,7 +22314,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -22328,7 +22348,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -22362,7 +22382,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -22396,7 +22416,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -22430,7 +22450,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -22464,7 +22484,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -22498,7 +22518,7 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -22521,7 +22541,7 @@
         <v>680</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -22553,7 +22573,7 @@
         <v>680</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -22585,7 +22605,7 @@
         <v>680</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -22617,7 +22637,7 @@
         <v>680</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -22649,7 +22669,7 @@
         <v>680</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -22681,7 +22701,7 @@
         <v>680</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -22690,7 +22710,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -22713,7 +22733,7 @@
         <v>680</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -22745,7 +22765,7 @@
         <v>680</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -22777,7 +22797,7 @@
         <v>680</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -22809,7 +22829,7 @@
         <v>680</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -22841,7 +22861,7 @@
         <v>680</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -22873,7 +22893,7 @@
         <v>680</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -22905,7 +22925,7 @@
         <v>680</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -22937,7 +22957,7 @@
         <v>680</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -22969,7 +22989,7 @@
         <v>680</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -23001,7 +23021,7 @@
         <v>680</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -23033,7 +23053,7 @@
         <v>680</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -23065,7 +23085,7 @@
         <v>680</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -23097,7 +23117,7 @@
         <v>680</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -23129,7 +23149,7 @@
         <v>680</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -23161,7 +23181,7 @@
         <v>680</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -23193,7 +23213,7 @@
         <v>680</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
@@ -23202,7 +23222,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -23225,7 +23245,7 @@
         <v>680</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -23234,7 +23254,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -23257,7 +23277,7 @@
         <v>680</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -23289,7 +23309,7 @@
         <v>680</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -23298,7 +23318,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -23321,7 +23341,7 @@
         <v>680</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -23330,7 +23350,7 @@
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -23353,7 +23373,7 @@
         <v>680</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -23385,7 +23405,7 @@
         <v>680</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
@@ -23417,7 +23437,7 @@
         <v>680</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -23426,7 +23446,7 @@
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -23449,7 +23469,7 @@
         <v>680</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -23481,7 +23501,7 @@
         <v>680</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -23513,7 +23533,7 @@
         <v>680</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -23522,7 +23542,7 @@
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -23545,7 +23565,7 @@
         <v>680</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -23577,7 +23597,7 @@
         <v>680</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -23609,7 +23629,7 @@
         <v>680</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -23641,7 +23661,7 @@
         <v>680</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -23673,7 +23693,7 @@
         <v>680</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -23705,7 +23725,7 @@
         <v>680</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -23737,7 +23757,7 @@
         <v>680</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -23769,7 +23789,7 @@
         <v>680</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -23801,7 +23821,7 @@
         <v>680</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -23833,7 +23853,7 @@
         <v>680</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -23865,7 +23885,7 @@
         <v>680</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -23897,7 +23917,7 @@
         <v>680</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -23929,7 +23949,7 @@
         <v>680</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -23961,7 +23981,7 @@
         <v>680</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -23993,7 +24013,7 @@
         <v>680</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -24025,7 +24045,7 @@
         <v>680</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -24057,7 +24077,7 @@
         <v>680</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -24089,7 +24109,7 @@
         <v>680</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -24121,7 +24141,7 @@
         <v>680</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -24153,7 +24173,7 @@
         <v>680</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
@@ -24185,7 +24205,7 @@
         <v>680</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -24217,7 +24237,7 @@
         <v>680</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>

--- a/percenty_id.xlsx
+++ b/percenty_id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\percenty_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B07A13-B882-4B9A-B1E4-0B97A5D6ACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD75B4B-13DB-46B7-8B7D-A8CD98EF67DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{A099B65F-58BE-4E64-B774-91566E9725A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A099B65F-58BE-4E64-B774-91566E9725A7}"/>
   </bookViews>
   <sheets>
     <sheet name="login_id" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5426" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5442" uniqueCount="1535">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5378,6 +5378,13 @@
   <si>
     <t>memo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartstore_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehsqjfwk1!</t>
   </si>
 </sst>
 </file>
@@ -7855,10 +7862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BA6B07-B5F1-43DE-99E7-CADF23D723A8}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7867,11 +7874,11 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="4" width="36.125" customWidth="1"/>
     <col min="5" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="13" width="23.75" customWidth="1"/>
-    <col min="14" max="14" width="39.375" customWidth="1"/>
+    <col min="7" max="14" width="23.75" customWidth="1"/>
+    <col min="15" max="15" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1">
+    <row r="1" spans="1:15" ht="30" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7902,20 +7909,23 @@
       <c r="J1" t="s">
         <v>825</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>827</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -7946,20 +7956,23 @@
       <c r="J2" t="s">
         <v>1164</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>1183</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7990,20 +8003,23 @@
       <c r="J3" t="s">
         <v>1165</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>1186</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>1187</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>1188</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -8034,20 +8050,23 @@
       <c r="J4" t="s">
         <v>1166</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>1190</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>1191</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>1192</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -8067,20 +8086,23 @@
       <c r="J5" t="s">
         <v>1167</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>1194</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>1195</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>1196</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -8100,20 +8122,23 @@
       <c r="J6" t="s">
         <v>1168</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>1199</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>1200</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -8133,20 +8158,23 @@
       <c r="J7" t="s">
         <v>1169</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>1203</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>1204</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -8166,20 +8194,23 @@
       <c r="J8" t="s">
         <v>1170</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>1206</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>1207</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>1208</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="14" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8199,20 +8230,23 @@
       <c r="J9" t="s">
         <v>1171</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>1210</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="M9" s="14" t="s">
         <v>1211</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="N9" s="14" t="s">
         <v>1212</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="O9" s="14" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -8232,20 +8266,23 @@
       <c r="J10" t="s">
         <v>1172</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>1214</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="M10" s="14" t="s">
         <v>1215</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="N10" s="14" t="s">
         <v>1216</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="14" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -8259,20 +8296,20 @@
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>1218</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="M11" s="14" t="s">
         <v>1219</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="N11" s="14" t="s">
         <v>1220</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="O11" s="14" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -8286,20 +8323,20 @@
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>1222</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="M12" s="14" t="s">
         <v>1223</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="N12" s="14" t="s">
         <v>1224</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="O12" s="14" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -8313,20 +8350,20 @@
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="K13" s="14" t="s">
+      <c r="L13" s="14" t="s">
         <v>1226</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="M13" s="14" t="s">
         <v>1227</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="N13" s="14" t="s">
         <v>1228</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="O13" s="14" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="21" customFormat="1">
+    <row r="14" spans="1:15" s="21" customFormat="1">
       <c r="A14" s="21" t="s">
         <v>3</v>
       </c>
@@ -8357,20 +8394,20 @@
       <c r="J14" s="21" t="s">
         <v>1322</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="L14" s="21" t="s">
         <v>1246</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="M14" s="21" t="s">
         <v>1247</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="N14" s="21" t="s">
         <v>1248</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="O14" s="21" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="20" t="s">
         <v>3</v>
       </c>
@@ -8401,20 +8438,20 @@
       <c r="J15" t="s">
         <v>1323</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>1250</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="M15" s="14" t="s">
         <v>1251</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="N15" s="14" t="s">
         <v>1252</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="O15" s="14" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="20" t="s">
         <v>3</v>
       </c>
@@ -8445,20 +8482,20 @@
       <c r="J16" t="s">
         <v>1324</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="L16" s="14" t="s">
         <v>1254</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>1255</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="N16" s="14" t="s">
         <v>1256</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="O16" s="14" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="20" t="s">
         <v>3</v>
       </c>
@@ -8485,20 +8522,20 @@
       <c r="J17" t="s">
         <v>1325</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>1258</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>1259</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="N17" s="14" t="s">
         <v>1260</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="O17" s="14" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="20" t="s">
         <v>3</v>
       </c>
@@ -8522,20 +8559,20 @@
       <c r="J18" t="s">
         <v>1326</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="L18" s="14" t="s">
         <v>1262</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="M18" s="14" t="s">
         <v>1263</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="N18" s="14" t="s">
         <v>1264</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="O18" s="14" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="20" t="s">
         <v>3</v>
       </c>
@@ -8559,20 +8596,20 @@
       <c r="J19" t="s">
         <v>1327</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="L19" s="14" t="s">
         <v>1266</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="M19" s="14" t="s">
         <v>1267</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="N19" s="14" t="s">
         <v>1268</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="O19" s="14" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="20" t="s">
         <v>3</v>
       </c>
@@ -8599,12 +8636,15 @@
       <c r="J20" t="s">
         <v>1328</v>
       </c>
-      <c r="K20" s="14"/>
+      <c r="K20" t="s">
+        <v>1534</v>
+      </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="20" t="s">
         <v>3</v>
       </c>
@@ -8631,12 +8671,15 @@
       <c r="J21" t="s">
         <v>1329</v>
       </c>
-      <c r="K21" s="14"/>
+      <c r="K21" t="s">
+        <v>1534</v>
+      </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="20" t="s">
         <v>3</v>
       </c>
@@ -8663,12 +8706,15 @@
       <c r="J22" t="s">
         <v>1330</v>
       </c>
-      <c r="K22" s="14"/>
+      <c r="K22" t="s">
+        <v>1534</v>
+      </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="20" t="s">
         <v>3</v>
       </c>
@@ -8695,12 +8741,15 @@
       <c r="J23" t="s">
         <v>1331</v>
       </c>
-      <c r="K23" s="14"/>
+      <c r="K23" t="s">
+        <v>1534</v>
+      </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="20" t="s">
         <v>3</v>
       </c>
@@ -8727,12 +8776,15 @@
       <c r="J24" t="s">
         <v>1332</v>
       </c>
-      <c r="K24" s="14"/>
+      <c r="K24" t="s">
+        <v>1534</v>
+      </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="20" t="s">
         <v>3</v>
       </c>
@@ -8756,10 +8808,13 @@
       <c r="J25" t="s">
         <v>1333</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" t="s">
+        <v>1534</v>
+      </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18759,7 +18814,7 @@
   </sheetPr>
   <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/percenty_id.xlsx
+++ b/percenty_id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\percenty_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAE967-C387-4C8C-90EC-1FE5F9312A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAE7805-3AD1-46C3-A5F5-6089C1A632D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="584" activeTab="11" xr2:uid="{A099B65F-58BE-4E64-B774-91566E9725A7}"/>
   </bookViews>
@@ -24,13 +24,14 @@
     <sheet name="SSS" sheetId="7" r:id="rId9"/>
     <sheet name="guide" sheetId="10" r:id="rId10"/>
     <sheet name="market_id" sheetId="12" r:id="rId11"/>
-    <sheet name="HAN (2)" sheetId="14" r:id="rId12"/>
+    <sheet name="cafe24_upload" sheetId="15" r:id="rId12"/>
+    <sheet name="HAN (2)" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CRZ!$A$1:$Q$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9">guide!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">HAN!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'HAN (2)'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'HAN (2)'!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">KIB!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">KKS!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">login_id!$A$1:$P$8</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6164" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6245" uniqueCount="1695">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9895,6 +9896,14 @@
   <si>
     <t>html_update</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑몰A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑몰A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13042,13 +13051,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1448D39F-943B-4668-B121-4FA7464AA2C1}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13246,10 +13255,284 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>807</v>
+        <v>805</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="L4" s="14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>1643</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>1643</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>1665</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6826BCD2-074A-45A7-894E-3714E5E221A8}">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="4" width="36.125" customWidth="1"/>
+    <col min="5" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="14" width="23.75" customWidth="1"/>
+    <col min="15" max="15" width="43.625" customWidth="1"/>
+    <col min="16" max="16" width="23.75" customWidth="1"/>
+    <col min="17" max="20" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="30" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>794</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>1662</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>1638</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>1639</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="12" t="s">
+        <v>1665</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1694</v>
       </c>
       <c r="C4" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -13258,17 +13541,82 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="12" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>1640</v>
+        <v>1667</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>1641</v>
       </c>
       <c r="T4" s="12" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>1641</v>
+      </c>
+      <c r="T6" s="12" t="s">
         <v>1670</v>
       </c>
     </row>
@@ -13278,18 +13626,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8711CE6-4548-4E38-A57F-000CF7A0A6D4}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
+      <selection pane="bottomRight" activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17334,20 +17682,16 @@
     <cfRule type="duplicateValues" dxfId="8" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17359,10 +17703,10 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20823,20 +21167,16 @@
     <cfRule type="duplicateValues" dxfId="143" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="142" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="141" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="138" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="137" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23846,20 +24186,16 @@
     <cfRule type="duplicateValues" dxfId="119" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="118" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="117" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="114" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="113" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26954,20 +27290,16 @@
     <cfRule type="duplicateValues" dxfId="95" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="94" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="93" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="90" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="89" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29645,12 +29977,10 @@
     <cfRule type="duplicateValues" dxfId="71" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="70" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33625,28 +33955,22 @@
     <cfRule type="duplicateValues" dxfId="51" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="duplicateValues" dxfId="50" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="46" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35893,20 +36217,16 @@
     <cfRule type="duplicateValues" dxfId="27" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
